--- a/script/DeepSTL_convert/autoware_docs/autoware_behavior_velocity_blind_spot/result.xlsx
+++ b/script/DeepSTL_convert/autoware_docs/autoware_behavior_velocity_blind_spot/result.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="13160"/>
+    <workbookView windowHeight="17240"/>
   </bookViews>
   <sheets>
     <sheet name="mtl" sheetId="1" r:id="rId1"/>
@@ -141,7 +141,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -152,13 +152,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -626,155 +619,158 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1124,13 +1120,20 @@
   <sheetPr/>
   <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <cols>
+    <col min="4" max="4" width="30.9326923076923" customWidth="1"/>
+    <col min="6" max="6" width="42.7788461538462" customWidth="1"/>
+    <col min="7" max="7" width="41.6634615384615" customWidth="1"/>
+    <col min="9" max="9" width="38.2980769230769" customWidth="1"/>
+    <col min="11" max="11" width="39.5769230769231" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" ht="17" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1168,448 +1171,505 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="2" ht="168" spans="1:12">
+      <c r="A2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="2">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J2" t="s">
-        <v>7</v>
-      </c>
-      <c r="K2" t="s">
-        <v>7</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="G2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="3" ht="135" spans="1:12">
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="2">
         <v>11</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L3" t="s">
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="4" ht="168" spans="1:12">
+      <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="2">
         <v>25</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J4" t="s">
-        <v>7</v>
-      </c>
-      <c r="L4" t="s">
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
+    <row r="5" ht="152" spans="1:12">
+      <c r="A5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="2">
         <v>30</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H5" t="s">
-        <v>7</v>
-      </c>
-      <c r="J5" t="s">
-        <v>7</v>
-      </c>
-      <c r="L5" t="s">
+      <c r="G5" s="2"/>
+      <c r="H5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
+    <row r="6" ht="101" spans="1:12">
+      <c r="A6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="2">
         <v>32</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H6" t="s">
-        <v>7</v>
-      </c>
-      <c r="J6" t="s">
-        <v>7</v>
-      </c>
-      <c r="L6" t="s">
+      <c r="G6" s="2"/>
+      <c r="H6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H7">
+    <row r="7" ht="17" spans="1:12">
+      <c r="A7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7" s="2">
         <f>SUM(H3:H6)</f>
         <v>0</v>
       </c>
-      <c r="I7" t="s">
-        <v>7</v>
-      </c>
-      <c r="J7">
+      <c r="I7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J7" s="2">
         <f>SUM(J2:J6)</f>
         <v>0</v>
       </c>
-      <c r="K7" t="s">
-        <v>7</v>
-      </c>
-      <c r="L7">
+      <c r="K7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L7" s="2">
         <f>SUM(L2:L6)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G8" t="s">
-        <v>7</v>
-      </c>
-      <c r="H8" t="s">
-        <v>7</v>
-      </c>
-      <c r="I8" t="s">
-        <v>7</v>
-      </c>
-      <c r="J8" t="s">
-        <v>7</v>
-      </c>
-      <c r="K8" t="s">
-        <v>7</v>
-      </c>
-      <c r="L8" t="s">
+    <row r="8" ht="17" spans="1:12">
+      <c r="A8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L8" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" t="s">
-        <v>7</v>
-      </c>
-      <c r="G9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H9" t="s">
-        <v>7</v>
-      </c>
-      <c r="I9" t="s">
-        <v>7</v>
-      </c>
-      <c r="J9" t="s">
-        <v>7</v>
-      </c>
-      <c r="K9" t="s">
-        <v>7</v>
-      </c>
-      <c r="L9" t="s">
+    <row r="9" ht="17" spans="1:12">
+      <c r="A9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L9" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
-      <c r="A10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" t="s">
-        <v>7</v>
-      </c>
-      <c r="F10" t="s">
-        <v>7</v>
-      </c>
-      <c r="G10" t="s">
+    <row r="10" ht="168" spans="1:12">
+      <c r="A10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="2">
         <v>1</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I10" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="2">
         <v>1</v>
       </c>
-      <c r="K10" t="s">
+      <c r="K10" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
-      <c r="A11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G11" t="s">
+    <row r="11" ht="152" spans="1:12">
+      <c r="A11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="2">
         <v>1</v>
       </c>
-      <c r="I11" t="s">
+      <c r="I11" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="2">
         <v>1</v>
       </c>
-      <c r="K11" t="s">
+      <c r="K11" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="L11">
+      <c r="L11" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
-      <c r="A12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" t="s">
-        <v>7</v>
-      </c>
-      <c r="F12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G12" t="s">
+    <row r="12" ht="135" spans="1:12">
+      <c r="A12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="2">
         <v>1</v>
       </c>
-      <c r="I12" t="s">
+      <c r="I12" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="2">
         <v>1</v>
       </c>
-      <c r="K12" t="s">
+      <c r="K12" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="L12">
+      <c r="L12" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="7:12">
-      <c r="G13" t="s">
+    <row r="13" ht="168" spans="1:12">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="2">
         <v>1</v>
       </c>
-      <c r="I13" t="s">
+      <c r="I13" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="J13">
+      <c r="J13" s="2">
         <v>1</v>
       </c>
-      <c r="K13" t="s">
+      <c r="K13" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="L13">
+      <c r="L13" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="7:12">
-      <c r="G14" t="s">
+    <row r="14" ht="168" spans="1:12">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="2">
         <v>1</v>
       </c>
-      <c r="J14">
+      <c r="I14" s="2"/>
+      <c r="J14" s="2">
         <f>SUM(J10:J13)</f>
         <v>4</v>
       </c>
-      <c r="K14" t="s">
+      <c r="K14" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="L14">
+      <c r="L14" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="7:12">
-      <c r="G15" t="s">
+    <row r="15" ht="118" spans="1:12">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="2">
         <v>1</v>
       </c>
-      <c r="L15">
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2">
         <f>SUM(L10:L14)</f>
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="7:8">
-      <c r="G16" t="s">
+    <row r="16" ht="168" spans="1:12">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="2">
         <v>1</v>
       </c>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
     </row>
-    <row r="17" spans="8:8">
-      <c r="H17">
+    <row r="17" ht="17" spans="1:12">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2">
         <f>SUM(H10:H16)</f>
         <v>7</v>
       </c>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/script/DeepSTL_convert/autoware_docs/autoware_behavior_velocity_blind_spot/result.xlsx
+++ b/script/DeepSTL_convert/autoware_docs/autoware_behavior_velocity_blind_spot/result.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17240"/>
+    <workbookView windowHeight="12720"/>
   </bookViews>
   <sheets>
     <sheet name="mtl" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="33">
   <si>
     <t>index</t>
   </si>
@@ -83,6 +83,9 @@
     <t>The LTL formula G(I → A) captures this behavior. I represents the condition of the lane having an intersection label (left or right turn), and A represents the activation of the function. The G operator ensures this rule applies globally. This formula states that at all times, if the intersection label condition is met, the function must be activated.</t>
   </si>
   <si>
+    <t>{'section-id': 1, 'sentence-id': 0, 'sentence': 'This function is activated when the lane id of the target path has an intersection label (i.e. the turn_direction attribute is left or right).', 'tl': 'always ( Thisfunction == activatedtatrgetah ) until ( fall ( T == aniretretpatBatne ) ) -&gt; ( tinlabelionlabelie &gt; 1 . et and trsectionlabe &lt; 3.4 ) or ( turn_dir == tretirtrinatreibtrtibtr ) )'}</t>
+  </si>
+  <si>
     <t>When both conditions are met for any of each object, this module state is transited to the "stop" state and insert zero velocity to stop the vehicle.</t>
   </si>
   <si>
@@ -92,6 +95,14 @@
     <t>This behavior is represented as G((C1 ∧ C2) → X(S ∧ Z)). C1 and C2 represent the two conditions, S represents the 'stop' state, and Z represents zero velocity. The G operator ensures this rule applies globally, while X ensures the state transition and velocity change happen in the next immediate state after the conditions are met. This formula captures the immediate response to the conditions being met.</t>
   </si>
   <si>
+    <t>{'section-id': 2, 'sentence-id': 5, 'sentence': 'Stop/Go state: When both conditions are met for any of each object, this module state is transited to the "stop" state and insert zero velocity to stop the vehicle.', 'tl': 'always ( StopGo == bothecmet -&gt; object == moduleduled and insertzeroverolcity == stopvelicleoicle )'}
+{'section-id': 2, 'sentence-id': 6, 'sentence': '1.Object is on the detection area', 'tl': 'always ( Objectet == detictionarea )'}
+{'section-id': 2, 'sentence-id': 7, 'sentence': '2.Object’s predicted path is on the conflict area', 'tl': 'always ( Objectspredicted == dpath )'}</t>
+  </si>
+  <si>
+    <t>{'section-id': 2, 'sentence-id': 5, 'sentence': 'Stop/Go state: When both conditions are met for any of each object, this module state is transited to the "stop" state and insert zero velocity to stop the vehicle.', 'tl': 'always ( StopGo == bothecmet -&gt; object == moduleduled and insertzeroverolcity == stopvelicleoicle )'}</t>
+  </si>
+  <si>
     <t>In order to avoid a rapid stop, the “stop” judgement is not executed after the judgment line is passed.</t>
   </si>
   <si>
@@ -101,6 +112,9 @@
     <t>This safety feature is captured by G(P → ¬F(S)). Here, P represents passing the judgment line, and S represents the 'stop' judgment. The G operator ensures this rule always applies. The formula states that globally, if the judgment line is passed, then it's not the case that a stop judgment will occur in the future. This effectively prevents rapid stops after a certain point.</t>
   </si>
   <si>
+    <t>{'section-id': 2, 'sentence-id': 8, 'sentence': 'In order to avoid a rapid stop, the “stop” judgement is not executed after the judgment line is passed.', 'tl': 'always ( not ( order == avoidaridapidstop ) -&gt; ( executed == judgecutentlinepassed ) since ( not ( sor == stedpod ) ) )'}</t>
+  </si>
+  <si>
     <t>Once a "stop" is judged, it will not transit to the "go" state until the "go" judgment continues for a certain period in order to prevent chattering of the state (e.g. 2 seconds).</t>
   </si>
   <si>
@@ -110,25 +124,10 @@
     <t>The formula expresses that once a stop S is decided, the transition to go GO will only occur if the go judugement J holds continuously for at least 2 seconds, preventing state chattering.</t>
   </si>
   <si>
+    <t>{'section-id': 2, 'sentence-id': 9, 'sentence': 'Once a "stop" is judged, it will not transit to the "go" state until the "go" judgment continues for a certain period in order to prevent chattering of the state (e.g. 2 seconds).', 'tl': 'always ( not rise ( Onceastopdgedit == transidit ) and judgdnerdment == aperintd -&gt; ( aperiod == orderperver ) until ( ervtchatering &gt; 4.2 and ervetchaterindsg &lt; eg . 2 ) )'}</t>
+  </si>
+  <si>
     <t>{'section-id': 2, 'sentence-id': 0, 'sentence': 'Sets a stop line, a pass judge line, a detection area and conflict area based on a map information and a self position.', 'tl': 'always ( Setsastoplinea == asedgelineadectionarea and conflaseda == edaredamapedamapedaramap = amopinfor )'}</t>
-  </si>
-  <si>
-    <t>{'section-id': 1, 'sentence-id': 0, 'sentence': 'This function is activated when the lane id of the target path has an intersection label (i.e. the turn_direction attribute is left or right).', 'tl': 'always ( Thisfunction == activatedtatrgetah ) until ( fall ( T == aniretretpatBatne ) ) -&gt; ( tinlabelionlabelie &gt; 1 . et and trsectionlabe &lt; 3.4 ) or ( turn_dir == tretirtrinatreibtrtibtr ) )'}</t>
-  </si>
-  <si>
-    <t>{'section-id': 2, 'sentence-id': 6, 'sentence': '1.Object is on the detection area', 'tl': 'always ( Objectet == detictionarea )'}</t>
-  </si>
-  <si>
-    <t>{'section-id': 2, 'sentence-id': 5, 'sentence': 'Stop/Go state: When both conditions are met for any of each object, this module state is transited to the "stop" state and insert zero velocity to stop the vehicle.', 'tl': 'always ( StopGo == bothecmet -&gt; object == moduleduled and insertzeroverolcity == stopvelicleoicle )'}</t>
-  </si>
-  <si>
-    <t>{'section-id': 2, 'sentence-id': 7, 'sentence': '2.Object’s predicted path is on the conflict area', 'tl': 'always ( Objectspredicted == dpath )'}</t>
-  </si>
-  <si>
-    <t>{'section-id': 2, 'sentence-id': 8, 'sentence': 'In order to avoid a rapid stop, the “stop” judgement is not executed after the judgment line is passed.', 'tl': 'always ( not ( order == avoidaridapidstop ) -&gt; ( executed == judgecutentlinepassed ) since ( not ( sor == stedpod ) ) )'}</t>
-  </si>
-  <si>
-    <t>{'section-id': 2, 'sentence-id': 9, 'sentence': 'Once a "stop" is judged, it will not transit to the "go" state until the "go" judgment continues for a certain period in order to prevent chattering of the state (e.g. 2 seconds).', 'tl': 'always ( not rise ( Onceastopdgedit == transidit ) and judgdnerdment == aperintd -&gt; ( aperiod == orderperver ) until ( ervtchatering &gt; 4.2 and ervetchaterindsg &lt; eg . 2 ) )'}</t>
   </si>
 </sst>
 </file>
@@ -767,7 +766,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1118,22 +1117,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
-  <cols>
-    <col min="4" max="4" width="30.9326923076923" customWidth="1"/>
-    <col min="6" max="6" width="42.7788461538462" customWidth="1"/>
-    <col min="7" max="7" width="41.6634615384615" customWidth="1"/>
-    <col min="9" max="9" width="38.2980769230769" customWidth="1"/>
-    <col min="11" max="11" width="39.5769230769231" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" ht="17" spans="1:12">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1171,505 +1163,374 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" ht="168" spans="1:12">
-      <c r="A2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2">
         <v>5</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="L2" s="2" t="s">
+      <c r="G2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" ht="135" spans="1:12">
-      <c r="A3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="2" t="s">
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3">
         <v>11</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2" t="s">
-        <v>7</v>
+      <c r="G3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
       </c>
     </row>
-    <row r="4" ht="168" spans="1:12">
-      <c r="A4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="2" t="s">
+    <row r="4" ht="26" customHeight="1" spans="1:12">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4">
         <v>25</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="2" t="s">
+      <c r="D4" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="E4" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2" t="s">
-        <v>7</v>
+      <c r="F4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4" t="s">
+        <v>23</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
       </c>
     </row>
-    <row r="5" ht="152" spans="1:12">
-      <c r="A5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="2" t="s">
+    <row r="5" spans="1:12">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5">
         <v>30</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2" t="s">
-        <v>7</v>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5" t="s">
+        <v>27</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
       </c>
     </row>
-    <row r="6" ht="101" spans="1:12">
-      <c r="A6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="2" t="s">
+    <row r="6" spans="1:12">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6">
         <v>32</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2" t="s">
-        <v>7</v>
+      <c r="D6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6" t="s">
+        <v>31</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6" t="s">
+        <v>31</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
       </c>
     </row>
-    <row r="7" ht="17" spans="1:12">
-      <c r="A7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H7" s="2">
-        <f>SUM(H3:H6)</f>
+    <row r="7" spans="1:11">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7"/>
+      <c r="I7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J7"/>
+      <c r="K7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I8" t="s">
+        <v>7</v>
+      </c>
+      <c r="J8" t="s">
+        <v>7</v>
+      </c>
+      <c r="K8" t="s">
+        <v>7</v>
+      </c>
+      <c r="L8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" t="s">
+        <v>7</v>
+      </c>
+      <c r="H9" t="s">
+        <v>7</v>
+      </c>
+      <c r="I9" t="s">
+        <v>7</v>
+      </c>
+      <c r="J9" t="s">
+        <v>7</v>
+      </c>
+      <c r="K9" t="s">
+        <v>7</v>
+      </c>
+      <c r="L9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" t="s">
+        <v>32</v>
+      </c>
+      <c r="H10">
         <v>0</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J7" s="2">
-        <f>SUM(J2:J6)</f>
+      <c r="K10" t="s">
+        <v>32</v>
+      </c>
+      <c r="L10">
         <v>0</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="L7" s="2">
-        <f>SUM(L2:L6)</f>
-        <v>0</v>
-      </c>
     </row>
-    <row r="8" ht="17" spans="1:12">
-      <c r="A8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="L8" s="2" t="s">
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" ht="17" spans="1:12">
-      <c r="A9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" ht="168" spans="1:12">
-      <c r="A10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H10" s="2">
-        <v>1</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="J10" s="2">
-        <v>1</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="L10" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" ht="152" spans="1:12">
-      <c r="A11" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H11" s="2">
-        <v>1</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J11" s="2">
-        <v>1</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="L11" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" ht="135" spans="1:12">
-      <c r="A12" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H12" s="2">
-        <v>1</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J12" s="2">
-        <v>1</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="L12" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" ht="168" spans="1:12">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H13" s="2">
-        <v>1</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J13" s="2">
-        <v>1</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L13" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" ht="168" spans="1:12">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H14" s="2">
-        <v>1</v>
-      </c>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2">
-        <f>SUM(J10:J13)</f>
-        <v>4</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="L14" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" ht="118" spans="1:12">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H15" s="2">
-        <v>1</v>
-      </c>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2">
-        <f>SUM(L10:L14)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" ht="168" spans="1:12">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H16" s="2">
-        <v>1</v>
-      </c>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-    </row>
-    <row r="17" ht="17" spans="1:12">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2">
-        <f>SUM(H10:H16)</f>
-        <v>7</v>
-      </c>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" t="s">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
